--- a/excel.xlsx
+++ b/excel.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="608">
   <si>
     <t xml:space="preserve">Contact</t>
   </si>
@@ -1870,6 +1870,12 @@
   <si>
     <t xml:space="preserve">https://www.youtube.com/channel/Pewdiepie/videos</t>
   </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/channel/Japan</t>
+  </si>
 </sst>
 </file>
 
@@ -1885,7 +1891,7 @@
     <numFmt numFmtId="170" formatCode="[H]:MM:SS"/>
     <numFmt numFmtId="171" formatCode="0%"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2121,13 +2127,6 @@
       <name val="Roboto"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2531,7 +2530,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2617,7 +2616,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="V9:Y11 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11967,10 +11966,10 @@
   </sheetPr>
   <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="V11" activeCellId="0" sqref="V9:Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12513,18 +12512,10 @@
       <c r="U9" s="59" t="s">
         <v>548</v>
       </c>
-      <c r="V9" s="17" t="n">
-        <v>1.964</v>
-      </c>
-      <c r="W9" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="X9" s="17" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y9" s="17" t="n">
-        <v>4.136</v>
-      </c>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
       <c r="Z9" s="17" t="n">
         <v>1</v>
       </c>
@@ -12597,18 +12588,10 @@
       <c r="U10" s="59" t="s">
         <v>555</v>
       </c>
-      <c r="V10" s="17" t="n">
-        <v>965</v>
-      </c>
-      <c r="W10" s="17" t="n">
-        <v>725</v>
-      </c>
-      <c r="X10" s="17" t="n">
-        <v>1527</v>
-      </c>
-      <c r="Y10" s="17" t="n">
-        <v>1.129</v>
-      </c>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
       <c r="AB10" s="17"/>
@@ -12621,7 +12604,7 @@
       <c r="AI10" s="17"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
         <v>556</v>
       </c>
@@ -12673,18 +12656,10 @@
       <c r="U11" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="V11" s="17" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="W11" s="17" t="n">
-        <v>84</v>
-      </c>
-      <c r="X11" s="17" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y11" s="17" t="n">
-        <v>1.102</v>
-      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
       <c r="Z11" s="17" t="n">
         <v>0</v>
       </c>
@@ -12701,7 +12676,7 @@
       <c r="AI11" s="17"/>
       <c r="AJ11" s="17"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
         <v>562</v>
       </c>
@@ -12755,18 +12730,10 @@
       <c r="U12" s="59" t="s">
         <v>568</v>
       </c>
-      <c r="V12" s="17" t="n">
-        <v>658</v>
-      </c>
-      <c r="W12" s="17" t="n">
-        <v>1.402</v>
-      </c>
-      <c r="X12" s="17" t="n">
-        <v>33</v>
-      </c>
-      <c r="Y12" s="17" t="n">
-        <v>8.328</v>
-      </c>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
       <c r="Z12" s="17" t="n">
         <v>0</v>
       </c>
@@ -12787,7 +12754,7 @@
       <c r="AI12" s="17"/>
       <c r="AJ12" s="17"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
         <v>570</v>
       </c>
@@ -12841,18 +12808,10 @@
       <c r="U13" s="61" t="s">
         <v>576</v>
       </c>
-      <c r="V13" s="17" t="n">
-        <v>44</v>
-      </c>
-      <c r="W13" s="17" t="n">
-        <v>16</v>
-      </c>
-      <c r="X13" s="17" t="n">
-        <v>136</v>
-      </c>
-      <c r="Y13" s="17" t="n">
-        <v>772</v>
-      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
       <c r="AB13" s="17"/>
@@ -12865,7 +12824,7 @@
       <c r="AI13" s="17"/>
       <c r="AJ13" s="17"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
         <v>577</v>
       </c>
@@ -12917,18 +12876,10 @@
       <c r="U14" s="61" t="s">
         <v>582</v>
       </c>
-      <c r="V14" s="17" t="n">
-        <v>806</v>
-      </c>
-      <c r="W14" s="17" t="n">
-        <v>259</v>
-      </c>
-      <c r="X14" s="17" t="n">
-        <v>467</v>
-      </c>
-      <c r="Y14" s="17" t="n">
-        <v>282</v>
-      </c>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
       <c r="Z14" s="17" t="n">
         <v>1</v>
       </c>
@@ -13201,7 +13152,21 @@
         <v>605</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30" t="s">
+        <v>607</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14207,27 +14172,27 @@
     <hyperlink ref="E11" r:id="rId13" display="https://thetoyreviewervideos.com"/>
     <hyperlink ref="J11" r:id="rId14" display="https://www.youtube.com/user/TheToyReviewerVideos/videos"/>
     <hyperlink ref="N11" r:id="rId15" display="https://www.instagram.com/thetoyreviewer/"/>
-    <hyperlink ref="U11" r:id="rId16" display="https://www.instagram.com/thetoyreviewer/"/>
-    <hyperlink ref="J12" r:id="rId17" display="https://www.youtube.com/channel/UCE0cWpq6A-JQbn341mnfcvw/videos"/>
-    <hyperlink ref="N12" r:id="rId18" display="https://www.instagram.com/FamilyToyReview/"/>
-    <hyperlink ref="U12" r:id="rId19" display="https://twitter.com/FamilyToyReview"/>
-    <hyperlink ref="AB12" r:id="rId20" display="https://www.facebook.com/FamilyToyReview"/>
-    <hyperlink ref="E13" r:id="rId21" display="http://owenandliamstoyreview.com"/>
-    <hyperlink ref="J13" r:id="rId22" display="https://www.youtube.com/user/owenstoyreview/videos"/>
-    <hyperlink ref="N13" r:id="rId23" display="https://www.instagram.com/owenandliam/"/>
-    <hyperlink ref="U13" r:id="rId24" display="https://twitter.com/OwenAndLiam"/>
-    <hyperlink ref="J14" r:id="rId25" display="https://www.youtube.com/channel/UCOb3FSzZxslUzJeyuArwa4g"/>
-    <hyperlink ref="N14" r:id="rId26" display="https://www.instagram.com/jacestoyplayhouse/"/>
-    <hyperlink ref="U14" r:id="rId27" display="https://twitter.com/jacesplayhouse"/>
-    <hyperlink ref="AB14" r:id="rId28" display="https://www.facebook.com/Jaces-Toy-Playhouse-2267915886772395/?modal=admin_todo_tour"/>
-    <hyperlink ref="J15" r:id="rId29" display="https://www.youtube.com/channel/UCXSvZthhk3lLnblVH3x9MkA/videos"/>
-    <hyperlink ref="J16" r:id="rId30" display="https://www.youtube.com/channel/UCteJ7mTMxzywmIF1o-CaUkA/videos"/>
-    <hyperlink ref="N16" r:id="rId31" display="https://www.instagram.com/mikey_likes_it1/"/>
-    <hyperlink ref="AB16" r:id="rId32" display="https://www.facebook.com/mikeylikesityoutube"/>
-    <hyperlink ref="J17" r:id="rId33" display="https://www.youtube.com/channel/UCw2Hb9NBLH6nG5HmIw_UZ8w/videos"/>
-    <hyperlink ref="N17" r:id="rId34" display="https://www.instagram.com/planetserenitychannel/"/>
-    <hyperlink ref="U17" r:id="rId35" display="https://twitter.com/PlanettSerenity"/>
-    <hyperlink ref="J19" r:id="rId36" display="https://www.youtube.com/channel/Pewdiepie/"/>
+    <hyperlink ref="J12" r:id="rId16" display="https://www.youtube.com/channel/UCE0cWpq6A-JQbn341mnfcvw/videos"/>
+    <hyperlink ref="N12" r:id="rId17" display="https://www.instagram.com/FamilyToyReview/"/>
+    <hyperlink ref="U12" r:id="rId18" display="https://twitter.com/FamilyToyReview"/>
+    <hyperlink ref="AB12" r:id="rId19" display="https://www.facebook.com/FamilyToyReview"/>
+    <hyperlink ref="E13" r:id="rId20" display="http://owenandliamstoyreview.com"/>
+    <hyperlink ref="J13" r:id="rId21" display="https://www.youtube.com/user/owenstoyreview/videos"/>
+    <hyperlink ref="N13" r:id="rId22" display="https://www.instagram.com/owenandliam/"/>
+    <hyperlink ref="U13" r:id="rId23" display="https://twitter.com/OwenAndLiam"/>
+    <hyperlink ref="J14" r:id="rId24" display="https://www.youtube.com/channel/UCOb3FSzZxslUzJeyuArwa4g"/>
+    <hyperlink ref="N14" r:id="rId25" display="https://www.instagram.com/jacestoyplayhouse/"/>
+    <hyperlink ref="U14" r:id="rId26" display="https://twitter.com/jacesplayhouse"/>
+    <hyperlink ref="AB14" r:id="rId27" display="https://www.facebook.com/Jaces-Toy-Playhouse-2267915886772395/?modal=admin_todo_tour"/>
+    <hyperlink ref="J15" r:id="rId28" display="https://www.youtube.com/channel/UCXSvZthhk3lLnblVH3x9MkA/videos"/>
+    <hyperlink ref="J16" r:id="rId29" display="https://www.youtube.com/channel/UCteJ7mTMxzywmIF1o-CaUkA/videos"/>
+    <hyperlink ref="N16" r:id="rId30" display="https://www.instagram.com/mikey_likes_it1/"/>
+    <hyperlink ref="AB16" r:id="rId31" display="https://www.facebook.com/mikeylikesityoutube"/>
+    <hyperlink ref="J17" r:id="rId32" display="https://www.youtube.com/channel/UCw2Hb9NBLH6nG5HmIw_UZ8w/videos"/>
+    <hyperlink ref="N17" r:id="rId33" display="https://www.instagram.com/planetserenitychannel/"/>
+    <hyperlink ref="U17" r:id="rId34" display="https://twitter.com/PlanettSerenity"/>
+    <hyperlink ref="J19" r:id="rId35" display="https://www.youtube.com/channel/Pewdiepie/videos"/>
+    <hyperlink ref="J20" r:id="rId36" display="https://www.youtube.com/channel/Japan"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="610">
   <si>
     <t xml:space="preserve">Contact</t>
   </si>
@@ -1875,6 +1875,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.youtube.com/channel/Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deneme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.instagram.com/hazarblablabla/</t>
   </si>
 </sst>
 </file>
@@ -2616,7 +2622,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="V9:Y11 A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11964,12 +11970,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ21"/>
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="V11" activeCellId="0" sqref="V9:Y11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13167,7 +13173,14 @@
         <v>607</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>609</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14193,6 +14206,7 @@
     <hyperlink ref="U17" r:id="rId34" display="https://twitter.com/PlanettSerenity"/>
     <hyperlink ref="J19" r:id="rId35" display="https://www.youtube.com/channel/Pewdiepie/videos"/>
     <hyperlink ref="J20" r:id="rId36" display="https://www.youtube.com/channel/Japan"/>
+    <hyperlink ref="N21" r:id="rId37" display="https://www.instagram.com/hazarblablabla/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="614">
   <si>
     <t xml:space="preserve">Contact</t>
   </si>
@@ -1586,6 +1586,12 @@
     <t xml:space="preserve">Twitter Link</t>
   </si>
   <si>
+    <t xml:space="preserve">Followers_t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">Likes</t>
   </si>
   <si>
@@ -1595,6 +1601,9 @@
     <t xml:space="preserve">Avg Retweets</t>
   </si>
   <si>
+    <t xml:space="preserve">Avg Likes_t</t>
+  </si>
+  <si>
     <t xml:space="preserve">Facebook Link</t>
   </si>
   <si>
@@ -1707,6 +1716,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.instagram.com/thetoyreviewer/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.twitter.com/thetoyreviewer/</t>
   </si>
   <si>
     <t xml:space="preserve">Family Toy Review</t>
@@ -11972,10 +11984,10 @@
   </sheetPr>
   <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N21" activeCellId="0" sqref="N21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="U11" activeCellId="0" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12107,28 +12119,28 @@
         <v>520</v>
       </c>
       <c r="V2" s="49" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="W2" s="49" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="X2" s="49" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Y2" s="49" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="Z2" s="49" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AA2" s="49" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="AD2" s="17"/>
       <c r="AE2" s="17"/>
@@ -12272,13 +12284,13 @@
     </row>
     <row r="6" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="17"/>
@@ -12290,10 +12302,10 @@
         <v>4</v>
       </c>
       <c r="I6" s="55" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K6" s="52" t="n">
         <v>5</v>
@@ -12302,10 +12314,10 @@
         <v>5600000</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="N6" s="58" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="O6" s="17" t="n">
         <v>107</v>
@@ -12322,7 +12334,7 @@
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="59" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="V6" s="52" t="n">
         <v>1.058</v>
@@ -12354,13 +12366,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="60"/>
@@ -12372,10 +12384,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K7" s="17" t="n">
         <v>2.026</v>
@@ -12384,7 +12396,7 @@
         <v>2430000</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="N7" s="51"/>
       <c r="O7" s="17"/>
@@ -12412,13 +12424,13 @@
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="60"/>
@@ -12431,7 +12443,7 @@
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="56" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="K8" s="17" t="n">
         <v>1</v>
@@ -12440,7 +12452,7 @@
         <v>1780000</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="N8" s="52"/>
       <c r="O8" s="17"/>
@@ -12468,13 +12480,13 @@
     </row>
     <row r="9" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="60"/>
@@ -12487,7 +12499,7 @@
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="61" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K9" s="17" t="n">
         <v>3</v>
@@ -12496,10 +12508,10 @@
         <v>1460000</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="N9" s="58" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="O9" s="17" t="n">
         <v>289</v>
@@ -12516,7 +12528,7 @@
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="59" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="V9" s="17"/>
       <c r="W9" s="17"/>
@@ -12529,7 +12541,7 @@
         <v>10</v>
       </c>
       <c r="AB9" s="61" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AC9" s="17" t="n">
         <v>5.962</v>
@@ -12544,13 +12556,13 @@
     </row>
     <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="D10" s="17"/>
       <c r="E10" s="60"/>
@@ -12563,7 +12575,7 @@
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="56" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K10" s="17" t="n">
         <v>0</v>
@@ -12572,10 +12584,10 @@
         <v>250000</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="N10" s="67" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="O10" s="17" t="n">
         <v>85</v>
@@ -12592,7 +12604,7 @@
       </c>
       <c r="T10" s="17"/>
       <c r="U10" s="59" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="V10" s="17"/>
       <c r="W10" s="17"/>
@@ -12610,19 +12622,19 @@
       <c r="AI10" s="17"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="61" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17" t="s">
@@ -12633,7 +12645,7 @@
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="61" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="K11" s="17" t="n">
         <v>1.623</v>
@@ -12642,10 +12654,10 @@
         <v>142000</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="N11" s="68" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="O11" s="17" t="n">
         <v>1.018</v>
@@ -12660,7 +12672,7 @@
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="59" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="V11" s="17"/>
       <c r="W11" s="17"/>
@@ -12684,13 +12696,13 @@
     </row>
     <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="60"/>
@@ -12702,10 +12714,10 @@
         <v>4</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="J12" s="61" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="K12" s="17" t="n">
         <v>1.118</v>
@@ -12714,10 +12726,10 @@
         <v>96800</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="N12" s="58" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="O12" s="17" t="n">
         <v>1.272</v>
@@ -12734,7 +12746,7 @@
       </c>
       <c r="T12" s="17"/>
       <c r="U12" s="59" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="V12" s="17"/>
       <c r="W12" s="17"/>
@@ -12747,7 +12759,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="61" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AC12" s="17" t="n">
         <v>188</v>
@@ -12762,28 +12774,28 @@
     </row>
     <row r="13" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D13" s="17"/>
       <c r="E13" s="61" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="H13" s="17" t="n">
         <v>4</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="61" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="K13" s="17" t="n">
         <v>1.224</v>
@@ -12792,10 +12804,10 @@
         <v>53700</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="N13" s="58" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="O13" s="17" t="n">
         <v>11</v>
@@ -12812,7 +12824,7 @@
       </c>
       <c r="T13" s="17"/>
       <c r="U13" s="61" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="V13" s="17"/>
       <c r="W13" s="17"/>
@@ -12832,13 +12844,13 @@
     </row>
     <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="60"/>
@@ -12851,7 +12863,7 @@
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="61" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="K14" s="17" t="n">
         <v>216</v>
@@ -12860,10 +12872,10 @@
         <v>88600</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="N14" s="58" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="O14" s="17" t="n">
         <v>270</v>
@@ -12880,7 +12892,7 @@
       </c>
       <c r="T14" s="17"/>
       <c r="U14" s="61" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="V14" s="17"/>
       <c r="W14" s="17"/>
@@ -12893,7 +12905,7 @@
         <v>10</v>
       </c>
       <c r="AB14" s="61" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="AC14" s="17" t="n">
         <v>236</v>
@@ -12908,11 +12920,11 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="69" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="60"/>
@@ -12925,7 +12937,7 @@
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="61" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="K15" s="17" t="n">
         <v>338</v>
@@ -12934,7 +12946,7 @@
         <v>54800</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
@@ -12962,11 +12974,11 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="60"/>
@@ -12979,7 +12991,7 @@
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="61" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="K16" s="17" t="n">
         <v>536</v>
@@ -12988,10 +13000,10 @@
         <v>42100</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="N16" s="61" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="O16" s="17" t="n">
         <v>1.153</v>
@@ -13015,7 +13027,7 @@
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
       <c r="AB16" s="61" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AC16" s="17" t="n">
         <v>57</v>
@@ -13030,11 +13042,11 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="60"/>
@@ -13046,10 +13058,10 @@
         <v>5</v>
       </c>
       <c r="I17" s="71" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="J17" s="61" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="K17" s="17" t="n">
         <v>165</v>
@@ -13058,10 +13070,10 @@
         <v>49600</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="N17" s="61" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="O17" s="17" t="n">
         <v>260</v>
@@ -13078,7 +13090,7 @@
       </c>
       <c r="T17" s="17"/>
       <c r="U17" s="72" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="V17" s="17" t="n">
         <v>707</v>
@@ -13106,11 +13118,11 @@
     </row>
     <row r="18" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="60"/>
@@ -13121,7 +13133,7 @@
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="61" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
@@ -13152,15 +13164,15 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="J19" s="73" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="30" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -13170,15 +13182,15 @@
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
       <c r="J20" s="30" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -14185,28 +14197,29 @@
     <hyperlink ref="E11" r:id="rId13" display="https://thetoyreviewervideos.com"/>
     <hyperlink ref="J11" r:id="rId14" display="https://www.youtube.com/user/TheToyReviewerVideos/videos"/>
     <hyperlink ref="N11" r:id="rId15" display="https://www.instagram.com/thetoyreviewer/"/>
-    <hyperlink ref="J12" r:id="rId16" display="https://www.youtube.com/channel/UCE0cWpq6A-JQbn341mnfcvw/videos"/>
-    <hyperlink ref="N12" r:id="rId17" display="https://www.instagram.com/FamilyToyReview/"/>
-    <hyperlink ref="U12" r:id="rId18" display="https://twitter.com/FamilyToyReview"/>
-    <hyperlink ref="AB12" r:id="rId19" display="https://www.facebook.com/FamilyToyReview"/>
-    <hyperlink ref="E13" r:id="rId20" display="http://owenandliamstoyreview.com"/>
-    <hyperlink ref="J13" r:id="rId21" display="https://www.youtube.com/user/owenstoyreview/videos"/>
-    <hyperlink ref="N13" r:id="rId22" display="https://www.instagram.com/owenandliam/"/>
-    <hyperlink ref="U13" r:id="rId23" display="https://twitter.com/OwenAndLiam"/>
-    <hyperlink ref="J14" r:id="rId24" display="https://www.youtube.com/channel/UCOb3FSzZxslUzJeyuArwa4g"/>
-    <hyperlink ref="N14" r:id="rId25" display="https://www.instagram.com/jacestoyplayhouse/"/>
-    <hyperlink ref="U14" r:id="rId26" display="https://twitter.com/jacesplayhouse"/>
-    <hyperlink ref="AB14" r:id="rId27" display="https://www.facebook.com/Jaces-Toy-Playhouse-2267915886772395/?modal=admin_todo_tour"/>
-    <hyperlink ref="J15" r:id="rId28" display="https://www.youtube.com/channel/UCXSvZthhk3lLnblVH3x9MkA/videos"/>
-    <hyperlink ref="J16" r:id="rId29" display="https://www.youtube.com/channel/UCteJ7mTMxzywmIF1o-CaUkA/videos"/>
-    <hyperlink ref="N16" r:id="rId30" display="https://www.instagram.com/mikey_likes_it1/"/>
-    <hyperlink ref="AB16" r:id="rId31" display="https://www.facebook.com/mikeylikesityoutube"/>
-    <hyperlink ref="J17" r:id="rId32" display="https://www.youtube.com/channel/UCw2Hb9NBLH6nG5HmIw_UZ8w/videos"/>
-    <hyperlink ref="N17" r:id="rId33" display="https://www.instagram.com/planetserenitychannel/"/>
-    <hyperlink ref="U17" r:id="rId34" display="https://twitter.com/PlanettSerenity"/>
-    <hyperlink ref="J19" r:id="rId35" display="https://www.youtube.com/channel/Pewdiepie/videos"/>
-    <hyperlink ref="J20" r:id="rId36" display="https://www.youtube.com/channel/Japan"/>
-    <hyperlink ref="N21" r:id="rId37" display="https://www.instagram.com/hazarblablabla/"/>
+    <hyperlink ref="U11" r:id="rId16" display="https://www.twitter"/>
+    <hyperlink ref="J12" r:id="rId17" display="https://www.youtube.com/channel/UCE0cWpq6A-JQbn341mnfcvw/videos"/>
+    <hyperlink ref="N12" r:id="rId18" display="https://www.instagram.com/FamilyToyReview/"/>
+    <hyperlink ref="U12" r:id="rId19" display="https://twitter.com/FamilyToyReview"/>
+    <hyperlink ref="AB12" r:id="rId20" display="https://www.facebook.com/FamilyToyReview"/>
+    <hyperlink ref="E13" r:id="rId21" display="http://owenandliamstoyreview.com"/>
+    <hyperlink ref="J13" r:id="rId22" display="https://www.youtube.com/user/owenstoyreview/videos"/>
+    <hyperlink ref="N13" r:id="rId23" display="https://www.instagram.com/owenandliam/"/>
+    <hyperlink ref="U13" r:id="rId24" display="https://twitter.com/OwenAndLiam"/>
+    <hyperlink ref="J14" r:id="rId25" display="https://www.youtube.com/channel/UCOb3FSzZxslUzJeyuArwa4g"/>
+    <hyperlink ref="N14" r:id="rId26" display="https://www.instagram.com/jacestoyplayhouse/"/>
+    <hyperlink ref="U14" r:id="rId27" display="https://twitter.com/jacesplayhouse"/>
+    <hyperlink ref="AB14" r:id="rId28" display="https://www.facebook.com/Jaces-Toy-Playhouse-2267915886772395/?modal=admin_todo_tour"/>
+    <hyperlink ref="J15" r:id="rId29" display="https://www.youtube.com/channel/UCXSvZthhk3lLnblVH3x9MkA/videos"/>
+    <hyperlink ref="J16" r:id="rId30" display="https://www.youtube.com/channel/UCteJ7mTMxzywmIF1o-CaUkA/videos"/>
+    <hyperlink ref="N16" r:id="rId31" display="https://www.instagram.com/mikey_likes_it1/"/>
+    <hyperlink ref="AB16" r:id="rId32" display="https://www.facebook.com/mikeylikesityoutube"/>
+    <hyperlink ref="J17" r:id="rId33" display="https://www.youtube.com/channel/UCw2Hb9NBLH6nG5HmIw_UZ8w/videos"/>
+    <hyperlink ref="N17" r:id="rId34" display="https://www.instagram.com/planetserenitychannel/"/>
+    <hyperlink ref="U17" r:id="rId35" display="https://twitter.com/PlanettSerenity"/>
+    <hyperlink ref="J19" r:id="rId36" display="https://www.youtube.com/channel/Pewdiepie/videos"/>
+    <hyperlink ref="J20" r:id="rId37" display="https://www.youtube.com/channel/Japan"/>
+    <hyperlink ref="N21" r:id="rId38" display="https://www.instagram.com/hazarblablabla/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -12552,8 +12552,8 @@
   </sheetPr>
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V12" activeCellId="0" sqref="V12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W10" activeCellId="0" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12570,7 +12570,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="25.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="17" style="0" width="7.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="46.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="46.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="24" style="0" width="7.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="39" style="0" width="12.63"/>
   </cols>
